--- a/dataset/drugs.xlsx
+++ b/dataset/drugs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trist\Desktop\AlgoMed\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85ADBB6E-3896-4B53-98BB-F0CC6BBB4552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F0D501-DC6E-484D-A296-82FBC6BF0A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,49 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>CIS</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>DO_QUANTITY</t>
-  </si>
-  <si>
-    <t>DO_FREQUENCY</t>
-  </si>
-  <si>
-    <t>DO_DUREATION</t>
-  </si>
-  <si>
-    <t>SI_FIEVRE</t>
-  </si>
-  <si>
-    <t>SI_DIARRHEA</t>
-  </si>
-  <si>
-    <t>SI_DISEASE_1</t>
-  </si>
-  <si>
-    <t>SI_DISEASE_2</t>
-  </si>
-  <si>
-    <t>SI_PREGNANT</t>
-  </si>
-  <si>
-    <t>SI_DRUG</t>
-  </si>
-  <si>
-    <t>SI_MAN</t>
-  </si>
-  <si>
-    <t>SI_WOMAN</t>
-  </si>
-  <si>
-    <t>SI_CHILD</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>GLUCOPHAGE 500 mg</t>
   </si>
@@ -79,6 +37,57 @@
   </si>
   <si>
     <t>IBUPROFÈNE VIATRIS 400 mg</t>
+  </si>
+  <si>
+    <t>cis</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>se_fever</t>
+  </si>
+  <si>
+    <t>se_diaerrha</t>
+  </si>
+  <si>
+    <t>se_desease_0</t>
+  </si>
+  <si>
+    <t>se_desease_1</t>
+  </si>
+  <si>
+    <t>se_pregnant</t>
+  </si>
+  <si>
+    <t>se_drug_1</t>
+  </si>
+  <si>
+    <t>se_drug_0</t>
+  </si>
+  <si>
+    <t>se_drug_2</t>
+  </si>
+  <si>
+    <t>se_drug_3</t>
+  </si>
+  <si>
+    <t>si_man</t>
+  </si>
+  <si>
+    <t>si_woman</t>
+  </si>
+  <si>
+    <t>si_child</t>
+  </si>
+  <si>
+    <t>do_quantity</t>
+  </si>
+  <si>
+    <t>do_frequency</t>
+  </si>
+  <si>
+    <t>do_duration</t>
   </si>
 </sst>
 </file>
@@ -396,166 +405,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -573,13 +609,13 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -588,18 +624,27 @@
         <v>1</v>
       </c>
       <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>2</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -620,21 +665,30 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
         <v>3</v>
       </c>
     </row>

--- a/dataset/drugs.xlsx
+++ b/dataset/drugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trist\Desktop\AlgoMed\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F0D501-DC6E-484D-A296-82FBC6BF0A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC380B8C-544D-4666-9269-E189B4AE2F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>se_desease_1</t>
   </si>
   <si>
-    <t>se_pregnant</t>
-  </si>
-  <si>
     <t>se_drug_1</t>
   </si>
   <si>
@@ -72,15 +69,6 @@
     <t>se_drug_3</t>
   </si>
   <si>
-    <t>si_man</t>
-  </si>
-  <si>
-    <t>si_woman</t>
-  </si>
-  <si>
-    <t>si_child</t>
-  </si>
-  <si>
     <t>do_quantity</t>
   </si>
   <si>
@@ -88,6 +76,18 @@
   </si>
   <si>
     <t>do_duration</t>
+  </si>
+  <si>
+    <t>ci_pregnant</t>
+  </si>
+  <si>
+    <t>ci_man</t>
+  </si>
+  <si>
+    <t>ci_woman</t>
+  </si>
+  <si>
+    <t>ci_child</t>
   </si>
 </sst>
 </file>
@@ -408,26 +408,26 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -447,40 +447,40 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
       </c>
       <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -553,19 +553,19 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -606,16 +606,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -639,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
